--- a/config_12.08/shoping_config.xlsx
+++ b/config_12.08/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -8621,7 +8621,7 @@
   <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F24"/>
+      <selection activeCell="F2" sqref="F2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25"/>
@@ -8847,9 +8847,7 @@
       <c r="D3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="2">
-        <v>85</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2">
         <v>85</v>
       </c>
@@ -8930,9 +8928,7 @@
       <c r="D4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="2">
-        <v>86</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2">
         <v>86</v>
       </c>
@@ -9013,9 +9009,7 @@
       <c r="D5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="2">
-        <v>87</v>
-      </c>
+      <c r="F5" s="2"/>
       <c r="G5" s="2">
         <v>87</v>
       </c>
@@ -9096,9 +9090,7 @@
       <c r="D6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="2">
-        <v>88</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2">
         <v>88</v>
       </c>
@@ -9179,9 +9171,7 @@
       <c r="D7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="2">
-        <v>89</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2">
         <v>89</v>
       </c>
@@ -9262,9 +9252,7 @@
       <c r="D8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="2">
-        <v>109</v>
-      </c>
+      <c r="F8" s="2"/>
       <c r="G8" s="2">
         <v>109</v>
       </c>
@@ -9345,9 +9333,7 @@
       <c r="D9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="2">
-        <v>10044</v>
-      </c>
+      <c r="F9" s="2"/>
       <c r="G9" s="2">
         <v>10044</v>
       </c>
@@ -9429,9 +9415,6 @@
         <v>41</v>
       </c>
       <c r="E10" s="23"/>
-      <c r="F10" s="11">
-        <v>10045</v>
-      </c>
       <c r="G10" s="11">
         <v>10045</v>
       </c>
@@ -9515,9 +9498,6 @@
       <c r="E11" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="F11" s="11">
-        <v>90</v>
-      </c>
       <c r="G11" s="11">
         <v>90</v>
       </c>
@@ -10503,9 +10483,6 @@
         <v>41</v>
       </c>
       <c r="E24" s="23"/>
-      <c r="F24" s="11">
-        <v>10189</v>
-      </c>
       <c r="G24" s="11">
         <v>10189</v>
       </c>
@@ -10586,10 +10563,10 @@
   <dimension ref="A1:AM488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N428" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P447" sqref="P447"/>
+      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -14380,7 +14357,7 @@
         <v>2</v>
       </c>
       <c r="F67" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G67" s="72" t="s">
         <v>233</v>
@@ -14436,7 +14413,7 @@
         <v>3</v>
       </c>
       <c r="F68" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G68" s="72" t="s">
         <v>235</v>
@@ -14492,7 +14469,7 @@
         <v>4</v>
       </c>
       <c r="F69" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G69" s="72" t="s">
         <v>237</v>
@@ -14548,7 +14525,7 @@
         <v>5</v>
       </c>
       <c r="F70" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G70" s="72" t="s">
         <v>239</v>
@@ -14604,7 +14581,7 @@
         <v>6</v>
       </c>
       <c r="F71" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G71" s="72" t="s">
         <v>240</v>
@@ -15939,7 +15916,7 @@
         <v>109</v>
       </c>
       <c r="F94" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G94" s="72" t="s">
         <v>264</v>
@@ -17973,7 +17950,7 @@
         <v>108</v>
       </c>
       <c r="F128" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G128" s="72" t="s">
         <v>330</v>
@@ -18029,7 +18006,7 @@
         <v>110</v>
       </c>
       <c r="F129" s="72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G129" s="72" t="s">
         <v>538</v>
@@ -27314,7 +27291,7 @@
         <v>111</v>
       </c>
       <c r="F273" s="76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" s="76" t="s">
         <v>541</v>

--- a/config_12.08/shoping_config.xlsx
+++ b/config_12.08/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3931" uniqueCount="1783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="1787">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7696,6 +7696,18 @@
   <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_guess_apple_bet_3",</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二498元礼包</t>
+  </si>
+  <si>
+    <t>双十二20元礼包</t>
+  </si>
+  <si>
+    <t>双十二6元礼包</t>
+  </si>
+  <si>
+    <t>"jing_bi","prop_tiny_game_coin","prop_12_12_cjq",</t>
   </si>
 </sst>
 </file>
@@ -7773,7 +7785,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7870,6 +7882,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -7913,7 +7931,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8155,6 +8173,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10563,10 +10590,10 @@
   <dimension ref="A1:AM488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="S464" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F67" sqref="F67"/>
+      <selection pane="bottomRight" activeCell="V480" sqref="V480"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -41046,15 +41073,381 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:38" s="5" customFormat="1"/>
-    <row r="481" spans="17:17" s="5" customFormat="1"/>
-    <row r="482" spans="17:17" s="5" customFormat="1"/>
-    <row r="483" spans="17:17" s="5" customFormat="1"/>
-    <row r="484" spans="17:17" s="5" customFormat="1"/>
-    <row r="485" spans="17:17" s="5" customFormat="1"/>
-    <row r="486" spans="17:17" s="5" customFormat="1"/>
-    <row r="487" spans="17:17" s="5" customFormat="1"/>
-    <row r="488" spans="17:17" s="5" customFormat="1">
+    <row r="480" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="A480" s="81">
+        <v>479</v>
+      </c>
+      <c r="B480" s="81">
+        <v>10396</v>
+      </c>
+      <c r="F480" s="81">
+        <v>1</v>
+      </c>
+      <c r="G480" s="81" t="s">
+        <v>1783</v>
+      </c>
+      <c r="I480" s="81" t="s">
+        <v>1582</v>
+      </c>
+      <c r="K480" s="81">
+        <v>-31</v>
+      </c>
+      <c r="L480" s="81">
+        <v>0</v>
+      </c>
+      <c r="M480" s="81">
+        <v>0</v>
+      </c>
+      <c r="N480" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="O480" s="81">
+        <v>49800</v>
+      </c>
+      <c r="P480" s="81" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q480" s="82" t="s">
+        <v>1590</v>
+      </c>
+      <c r="V480" s="81" t="s">
+        <v>1603</v>
+      </c>
+      <c r="W480" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="X480" s="83">
+        <v>1607385600</v>
+      </c>
+      <c r="Y480" s="83">
+        <v>1607961599</v>
+      </c>
+      <c r="AG480" s="81">
+        <v>1</v>
+      </c>
+      <c r="AH480" s="81">
+        <v>1</v>
+      </c>
+      <c r="AK480" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL480" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="A481" s="81">
+        <v>480</v>
+      </c>
+      <c r="B481" s="81">
+        <v>10397</v>
+      </c>
+      <c r="F481" s="81">
+        <v>1</v>
+      </c>
+      <c r="G481" s="81" t="s">
+        <v>366</v>
+      </c>
+      <c r="I481" s="81" t="s">
+        <v>1583</v>
+      </c>
+      <c r="K481" s="81">
+        <v>-31</v>
+      </c>
+      <c r="L481" s="81">
+        <v>0</v>
+      </c>
+      <c r="M481" s="81">
+        <v>0</v>
+      </c>
+      <c r="N481" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="O481" s="81">
+        <v>19800</v>
+      </c>
+      <c r="P481" s="81" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q481" s="82" t="s">
+        <v>1592</v>
+      </c>
+      <c r="V481" s="81" t="s">
+        <v>1603</v>
+      </c>
+      <c r="W481" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="X481" s="83">
+        <v>1607385600</v>
+      </c>
+      <c r="Y481" s="83">
+        <v>1607961599</v>
+      </c>
+      <c r="AG481" s="81">
+        <v>1</v>
+      </c>
+      <c r="AH481" s="81">
+        <v>1</v>
+      </c>
+      <c r="AK481" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL481" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="482" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="A482" s="81">
+        <v>481</v>
+      </c>
+      <c r="B482" s="81">
+        <v>10398</v>
+      </c>
+      <c r="F482" s="81">
+        <v>1</v>
+      </c>
+      <c r="G482" s="81" t="s">
+        <v>365</v>
+      </c>
+      <c r="I482" s="81" t="s">
+        <v>1584</v>
+      </c>
+      <c r="K482" s="81">
+        <v>-31</v>
+      </c>
+      <c r="L482" s="81">
+        <v>0</v>
+      </c>
+      <c r="M482" s="81">
+        <v>0</v>
+      </c>
+      <c r="N482" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="O482" s="81">
+        <v>9800</v>
+      </c>
+      <c r="P482" s="81" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q482" s="82" t="s">
+        <v>1416</v>
+      </c>
+      <c r="V482" s="81" t="s">
+        <v>1603</v>
+      </c>
+      <c r="W482" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="X482" s="83">
+        <v>1607385600</v>
+      </c>
+      <c r="Y482" s="83">
+        <v>1607961599</v>
+      </c>
+      <c r="AG482" s="81">
+        <v>1</v>
+      </c>
+      <c r="AH482" s="81">
+        <v>1</v>
+      </c>
+      <c r="AK482" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL482" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="A483" s="81">
+        <v>482</v>
+      </c>
+      <c r="B483" s="81">
+        <v>10399</v>
+      </c>
+      <c r="F483" s="81">
+        <v>1</v>
+      </c>
+      <c r="G483" s="81" t="s">
+        <v>364</v>
+      </c>
+      <c r="I483" s="81" t="s">
+        <v>1585</v>
+      </c>
+      <c r="K483" s="81">
+        <v>-31</v>
+      </c>
+      <c r="L483" s="81">
+        <v>0</v>
+      </c>
+      <c r="M483" s="81">
+        <v>0</v>
+      </c>
+      <c r="N483" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="O483" s="81">
+        <v>4800</v>
+      </c>
+      <c r="P483" s="81" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q483" s="82" t="s">
+        <v>1596</v>
+      </c>
+      <c r="V483" s="81" t="s">
+        <v>1603</v>
+      </c>
+      <c r="W483" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="X483" s="83">
+        <v>1607385600</v>
+      </c>
+      <c r="Y483" s="83">
+        <v>1607961599</v>
+      </c>
+      <c r="AG483" s="81">
+        <v>1</v>
+      </c>
+      <c r="AH483" s="81">
+        <v>1</v>
+      </c>
+      <c r="AK483" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL483" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="484" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="A484" s="81">
+        <v>483</v>
+      </c>
+      <c r="B484" s="81">
+        <v>10400</v>
+      </c>
+      <c r="F484" s="81">
+        <v>1</v>
+      </c>
+      <c r="G484" s="81" t="s">
+        <v>1784</v>
+      </c>
+      <c r="I484" s="81" t="s">
+        <v>1586</v>
+      </c>
+      <c r="K484" s="81">
+        <v>-31</v>
+      </c>
+      <c r="L484" s="81">
+        <v>0</v>
+      </c>
+      <c r="M484" s="81">
+        <v>0</v>
+      </c>
+      <c r="N484" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="O484" s="81">
+        <v>2000</v>
+      </c>
+      <c r="P484" s="81" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q484" s="82" t="s">
+        <v>1597</v>
+      </c>
+      <c r="V484" s="81" t="s">
+        <v>595</v>
+      </c>
+      <c r="W484" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="X484" s="83">
+        <v>1607385600</v>
+      </c>
+      <c r="Y484" s="83">
+        <v>1607961599</v>
+      </c>
+      <c r="AG484" s="81">
+        <v>1</v>
+      </c>
+      <c r="AH484" s="81">
+        <v>1</v>
+      </c>
+      <c r="AK484" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL484" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="A485" s="81">
+        <v>484</v>
+      </c>
+      <c r="B485" s="81">
+        <v>10401</v>
+      </c>
+      <c r="F485" s="81">
+        <v>1</v>
+      </c>
+      <c r="G485" s="81" t="s">
+        <v>1785</v>
+      </c>
+      <c r="I485" s="81" t="s">
+        <v>1587</v>
+      </c>
+      <c r="K485" s="81">
+        <v>-31</v>
+      </c>
+      <c r="L485" s="81">
+        <v>0</v>
+      </c>
+      <c r="M485" s="81">
+        <v>0</v>
+      </c>
+      <c r="N485" s="81" t="s">
+        <v>111</v>
+      </c>
+      <c r="O485" s="81">
+        <v>600</v>
+      </c>
+      <c r="P485" s="81" t="s">
+        <v>1786</v>
+      </c>
+      <c r="Q485" s="82" t="s">
+        <v>1599</v>
+      </c>
+      <c r="V485" s="81" t="s">
+        <v>595</v>
+      </c>
+      <c r="W485" s="81">
+        <v>9999999</v>
+      </c>
+      <c r="X485" s="83">
+        <v>1607385600</v>
+      </c>
+      <c r="Y485" s="83">
+        <v>1607961599</v>
+      </c>
+      <c r="AG485" s="81">
+        <v>1</v>
+      </c>
+      <c r="AH485" s="81">
+        <v>1</v>
+      </c>
+      <c r="AK485" s="81">
+        <v>1</v>
+      </c>
+      <c r="AL485" s="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="486" spans="1:38" s="5" customFormat="1"/>
+    <row r="487" spans="1:38" s="5" customFormat="1"/>
+    <row r="488" spans="1:38" s="5" customFormat="1">
       <c r="Q488" s="10"/>
     </row>
   </sheetData>

--- a/config_12.08/shoping_config.xlsx
+++ b/config_12.08/shoping_config.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="1789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="1787">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7708,14 +7708,6 @@
   </si>
   <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_12_12_cjq",</t>
-  </si>
-  <si>
-    <t>tag|标签</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>热销</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10595,10 +10587,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN488"/>
+  <dimension ref="A1:AM488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="AF464" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AG2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
@@ -10643,7 +10635,7 @@
     <col min="40" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5">
+    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10761,11 +10753,8 @@
       <c r="AM1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="2" spans="1:40" s="5" customFormat="1">
+    </row>
+    <row r="2" spans="1:39" s="5" customFormat="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -10823,7 +10812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:40" s="5" customFormat="1">
+    <row r="3" spans="1:39" s="5" customFormat="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -10881,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:40" s="5" customFormat="1">
+    <row r="4" spans="1:39" s="5" customFormat="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -10939,7 +10928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:40" s="5" customFormat="1">
+    <row r="5" spans="1:39" s="5" customFormat="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -11008,7 +10997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:40" s="5" customFormat="1">
+    <row r="6" spans="1:39" s="5" customFormat="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11062,7 +11051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:40" s="5" customFormat="1">
+    <row r="7" spans="1:39" s="5" customFormat="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11120,7 +11109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:40" s="5" customFormat="1">
+    <row r="8" spans="1:39" s="5" customFormat="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11177,7 +11166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:40" s="5" customFormat="1">
+    <row r="9" spans="1:39" s="5" customFormat="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11231,7 +11220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:40" s="5" customFormat="1">
+    <row r="10" spans="1:39" s="5" customFormat="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11285,7 +11274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:40" s="5" customFormat="1">
+    <row r="11" spans="1:39" s="5" customFormat="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11339,7 +11328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:40" s="5" customFormat="1">
+    <row r="12" spans="1:39" s="5" customFormat="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11393,7 +11382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:40" s="5" customFormat="1">
+    <row r="13" spans="1:39" s="5" customFormat="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11450,7 +11439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:40" s="5" customFormat="1">
+    <row r="14" spans="1:39" s="5" customFormat="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11504,7 +11493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:40" s="5" customFormat="1">
+    <row r="15" spans="1:39" s="5" customFormat="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11561,7 +11550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:40" s="5" customFormat="1">
+    <row r="16" spans="1:39" s="5" customFormat="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -36974,7 +36963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:40">
+    <row r="417" spans="1:38">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -37042,7 +37031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:40">
+    <row r="418" spans="1:38">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37110,7 +37099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:40">
+    <row r="419" spans="1:38">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -37178,7 +37167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:40">
+    <row r="420" spans="1:38">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -37246,7 +37235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:40" s="19" customFormat="1">
+    <row r="421" spans="1:38" s="19" customFormat="1">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -37314,7 +37303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:40">
+    <row r="422" spans="1:38">
       <c r="A422" s="6">
         <v>421</v>
       </c>
@@ -37382,7 +37371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:40">
+    <row r="423" spans="1:38">
       <c r="A423" s="6">
         <v>422</v>
       </c>
@@ -37450,7 +37439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:40">
+    <row r="424" spans="1:38">
       <c r="A424" s="6">
         <v>423</v>
       </c>
@@ -37518,7 +37507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:40">
+    <row r="425" spans="1:38">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -37573,11 +37562,8 @@
       <c r="AH425" s="6">
         <v>1</v>
       </c>
-      <c r="AN425" s="6" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="426" spans="1:40">
+    </row>
+    <row r="426" spans="1:38">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -37633,7 +37619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:40">
+    <row r="427" spans="1:38">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -37688,11 +37674,8 @@
       <c r="AH427" s="6">
         <v>1</v>
       </c>
-      <c r="AN427" s="6" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="428" spans="1:40">
+    </row>
+    <row r="428" spans="1:38">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -37748,7 +37731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:40">
+    <row r="429" spans="1:38">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -37804,7 +37787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:40" s="19" customFormat="1">
+    <row r="430" spans="1:38" s="19" customFormat="1">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -37872,7 +37855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:40" s="19" customFormat="1">
+    <row r="431" spans="1:38" s="19" customFormat="1">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -37940,7 +37923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:40" s="19" customFormat="1">
+    <row r="432" spans="1:38" s="19" customFormat="1">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -40109,7 +40092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:40" s="54" customFormat="1">
+    <row r="465" spans="1:38" s="54" customFormat="1">
       <c r="A465" s="54">
         <v>464</v>
       </c>
@@ -40177,7 +40160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:40" s="54" customFormat="1">
+    <row r="466" spans="1:38" s="54" customFormat="1">
       <c r="A466" s="54">
         <v>465</v>
       </c>
@@ -40242,7 +40225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:40" s="54" customFormat="1">
+    <row r="467" spans="1:38" s="54" customFormat="1">
       <c r="A467" s="54">
         <v>466</v>
       </c>
@@ -40310,7 +40293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:40" s="58" customFormat="1">
+    <row r="468" spans="1:38" s="58" customFormat="1">
       <c r="A468" s="58">
         <v>467</v>
       </c>
@@ -40375,7 +40358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:40" s="58" customFormat="1">
+    <row r="469" spans="1:38" s="58" customFormat="1">
       <c r="A469" s="58">
         <v>468</v>
       </c>
@@ -40440,7 +40423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:40" s="58" customFormat="1">
+    <row r="470" spans="1:38" s="58" customFormat="1">
       <c r="A470" s="58">
         <v>469</v>
       </c>
@@ -40505,7 +40488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:40" s="58" customFormat="1">
+    <row r="471" spans="1:38" s="58" customFormat="1">
       <c r="A471" s="58">
         <v>470</v>
       </c>
@@ -40570,7 +40553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:40" s="58" customFormat="1">
+    <row r="472" spans="1:38" s="58" customFormat="1">
       <c r="A472" s="58">
         <v>471</v>
       </c>
@@ -40635,7 +40618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:40" s="58" customFormat="1">
+    <row r="473" spans="1:38" s="58" customFormat="1">
       <c r="A473" s="58">
         <v>472</v>
       </c>
@@ -40700,7 +40683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:40" s="68" customFormat="1">
+    <row r="474" spans="1:38" s="68" customFormat="1">
       <c r="A474" s="68">
         <v>473</v>
       </c>
@@ -40765,7 +40748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:40" s="68" customFormat="1">
+    <row r="475" spans="1:38" s="68" customFormat="1">
       <c r="A475" s="68">
         <v>474</v>
       </c>
@@ -40830,7 +40813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:40" s="70" customFormat="1">
+    <row r="476" spans="1:38" s="70" customFormat="1">
       <c r="A476" s="70">
         <v>475</v>
       </c>
@@ -40895,7 +40878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:40" s="70" customFormat="1">
+    <row r="477" spans="1:38" s="70" customFormat="1">
       <c r="A477" s="70">
         <v>476</v>
       </c>
@@ -40960,7 +40943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:40" s="70" customFormat="1">
+    <row r="478" spans="1:38" s="70" customFormat="1">
       <c r="A478" s="70">
         <v>477</v>
       </c>
@@ -41025,7 +41008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:40" s="70" customFormat="1">
+    <row r="479" spans="1:38" s="70" customFormat="1">
       <c r="A479" s="70">
         <v>478</v>
       </c>
@@ -41090,7 +41073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:40" s="81" customFormat="1" ht="14.25">
+    <row r="480" spans="1:38" s="81" customFormat="1" ht="14.25">
       <c r="A480" s="81">
         <v>479</v>
       </c>
@@ -41151,9 +41134,8 @@
       <c r="AL480" s="81">
         <v>1</v>
       </c>
-      <c r="AN480" s="5"/>
-    </row>
-    <row r="481" spans="1:40" s="81" customFormat="1" ht="14.25">
+    </row>
+    <row r="481" spans="1:38" s="81" customFormat="1" ht="14.25">
       <c r="A481" s="81">
         <v>480</v>
       </c>
@@ -41214,9 +41196,8 @@
       <c r="AL481" s="81">
         <v>1</v>
       </c>
-      <c r="AN481" s="5"/>
-    </row>
-    <row r="482" spans="1:40" s="81" customFormat="1" ht="14.25">
+    </row>
+    <row r="482" spans="1:38" s="81" customFormat="1" ht="14.25">
       <c r="A482" s="81">
         <v>481</v>
       </c>
@@ -41277,9 +41258,8 @@
       <c r="AL482" s="81">
         <v>1</v>
       </c>
-      <c r="AN482" s="5"/>
-    </row>
-    <row r="483" spans="1:40" s="81" customFormat="1" ht="14.25">
+    </row>
+    <row r="483" spans="1:38" s="81" customFormat="1" ht="14.25">
       <c r="A483" s="81">
         <v>482</v>
       </c>
@@ -41340,9 +41320,8 @@
       <c r="AL483" s="81">
         <v>1</v>
       </c>
-      <c r="AN483" s="5"/>
-    </row>
-    <row r="484" spans="1:40" s="81" customFormat="1" ht="14.25">
+    </row>
+    <row r="484" spans="1:38" s="81" customFormat="1" ht="14.25">
       <c r="A484" s="81">
         <v>483</v>
       </c>
@@ -41403,9 +41382,8 @@
       <c r="AL484" s="81">
         <v>1</v>
       </c>
-      <c r="AN484" s="5"/>
-    </row>
-    <row r="485" spans="1:40" s="81" customFormat="1" ht="14.25">
+    </row>
+    <row r="485" spans="1:38" s="81" customFormat="1" ht="14.25">
       <c r="A485" s="81">
         <v>484</v>
       </c>
@@ -41466,11 +41444,10 @@
       <c r="AL485" s="81">
         <v>1</v>
       </c>
-      <c r="AN485" s="5"/>
-    </row>
-    <row r="486" spans="1:40" s="5" customFormat="1"/>
-    <row r="487" spans="1:40" s="5" customFormat="1"/>
-    <row r="488" spans="1:40" s="5" customFormat="1">
+    </row>
+    <row r="486" spans="1:38" s="5" customFormat="1"/>
+    <row r="487" spans="1:38" s="5" customFormat="1"/>
+    <row r="488" spans="1:38" s="5" customFormat="1">
       <c r="Q488" s="10"/>
     </row>
   </sheetData>

--- a/config_12.08/shoping_config.xlsx
+++ b/config_12.08/shoping_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="1787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3970" uniqueCount="1789">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -7708,6 +7708,14 @@
   </si>
   <si>
     <t>"jing_bi","prop_tiny_game_coin","prop_12_12_cjq",</t>
+  </si>
+  <si>
+    <t>tag|标签</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>热销</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -10587,13 +10595,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM488"/>
+  <dimension ref="A1:AN488"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="S464" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="AF464" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="V480" sqref="V480"/>
+      <selection pane="bottomRight" activeCell="AN1" sqref="AN1:AN1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5"/>
@@ -10635,7 +10643,7 @@
     <col min="40" max="16384" width="8.75" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="1" customFormat="1" ht="94.5">
+    <row r="1" spans="1:40" s="1" customFormat="1" ht="94.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10753,8 +10761,11 @@
       <c r="AM1" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" spans="1:39" s="5" customFormat="1">
+      <c r="AN1" s="1" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" s="5" customFormat="1">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -10812,7 +10823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:39" s="5" customFormat="1">
+    <row r="3" spans="1:40" s="5" customFormat="1">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -10870,7 +10881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:39" s="5" customFormat="1">
+    <row r="4" spans="1:40" s="5" customFormat="1">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -10928,7 +10939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="5" customFormat="1">
+    <row r="5" spans="1:40" s="5" customFormat="1">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -10997,7 +11008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:39" s="5" customFormat="1">
+    <row r="6" spans="1:40" s="5" customFormat="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -11051,7 +11062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:39" s="5" customFormat="1">
+    <row r="7" spans="1:40" s="5" customFormat="1">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -11109,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:39" s="5" customFormat="1">
+    <row r="8" spans="1:40" s="5" customFormat="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -11166,7 +11177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:39" s="5" customFormat="1">
+    <row r="9" spans="1:40" s="5" customFormat="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -11220,7 +11231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:39" s="5" customFormat="1">
+    <row r="10" spans="1:40" s="5" customFormat="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -11274,7 +11285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:39" s="5" customFormat="1">
+    <row r="11" spans="1:40" s="5" customFormat="1">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -11328,7 +11339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:39" s="5" customFormat="1">
+    <row r="12" spans="1:40" s="5" customFormat="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -11382,7 +11393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:39" s="5" customFormat="1">
+    <row r="13" spans="1:40" s="5" customFormat="1">
       <c r="A13" s="5">
         <v>12</v>
       </c>
@@ -11439,7 +11450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:39" s="5" customFormat="1">
+    <row r="14" spans="1:40" s="5" customFormat="1">
       <c r="A14" s="5">
         <v>13</v>
       </c>
@@ -11493,7 +11504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:39" s="5" customFormat="1">
+    <row r="15" spans="1:40" s="5" customFormat="1">
       <c r="A15" s="5">
         <v>14</v>
       </c>
@@ -11550,7 +11561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:39" s="5" customFormat="1">
+    <row r="16" spans="1:40" s="5" customFormat="1">
       <c r="A16" s="5">
         <v>15</v>
       </c>
@@ -36963,7 +36974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:38">
+    <row r="417" spans="1:40">
       <c r="A417" s="5">
         <v>416</v>
       </c>
@@ -37031,7 +37042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:38">
+    <row r="418" spans="1:40">
       <c r="A418" s="5">
         <v>417</v>
       </c>
@@ -37099,7 +37110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:38">
+    <row r="419" spans="1:40">
       <c r="A419" s="6">
         <v>418</v>
       </c>
@@ -37167,7 +37178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:38">
+    <row r="420" spans="1:40">
       <c r="A420" s="6">
         <v>419</v>
       </c>
@@ -37235,7 +37246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="421" spans="1:38" s="19" customFormat="1">
+    <row r="421" spans="1:40" s="19" customFormat="1">
       <c r="A421" s="19">
         <v>420</v>
       </c>
@@ -37303,7 +37314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:38">
+    <row r="422" spans="1:40">
       <c r="A422" s="6">
         <v>421</v>
       </c>
@@ -37371,7 +37382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:38">
+    <row r="423" spans="1:40">
       <c r="A423" s="6">
         <v>422</v>
       </c>
@@ -37439,7 +37450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:38">
+    <row r="424" spans="1:40">
       <c r="A424" s="6">
         <v>423</v>
       </c>
@@ -37507,7 +37518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:38">
+    <row r="425" spans="1:40">
       <c r="A425" s="6">
         <v>424</v>
       </c>
@@ -37562,8 +37573,11 @@
       <c r="AH425" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="426" spans="1:38">
+      <c r="AN425" s="6" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="426" spans="1:40">
       <c r="A426" s="6">
         <v>425</v>
       </c>
@@ -37619,7 +37633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:38">
+    <row r="427" spans="1:40">
       <c r="A427" s="6">
         <v>426</v>
       </c>
@@ -37674,8 +37688,11 @@
       <c r="AH427" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="428" spans="1:38">
+      <c r="AN427" s="6" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="428" spans="1:40">
       <c r="A428" s="6">
         <v>427</v>
       </c>
@@ -37731,7 +37748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:38">
+    <row r="429" spans="1:40">
       <c r="A429" s="6">
         <v>428</v>
       </c>
@@ -37787,7 +37804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:38" s="19" customFormat="1">
+    <row r="430" spans="1:40" s="19" customFormat="1">
       <c r="A430" s="6">
         <v>429</v>
       </c>
@@ -37855,7 +37872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="431" spans="1:38" s="19" customFormat="1">
+    <row r="431" spans="1:40" s="19" customFormat="1">
       <c r="A431" s="6">
         <v>430</v>
       </c>
@@ -37923,7 +37940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:38" s="19" customFormat="1">
+    <row r="432" spans="1:40" s="19" customFormat="1">
       <c r="A432" s="6">
         <v>431</v>
       </c>
@@ -40092,7 +40109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:38" s="54" customFormat="1">
+    <row r="465" spans="1:40" s="54" customFormat="1">
       <c r="A465" s="54">
         <v>464</v>
       </c>
@@ -40160,7 +40177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:38" s="54" customFormat="1">
+    <row r="466" spans="1:40" s="54" customFormat="1">
       <c r="A466" s="54">
         <v>465</v>
       </c>
@@ -40225,7 +40242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:38" s="54" customFormat="1">
+    <row r="467" spans="1:40" s="54" customFormat="1">
       <c r="A467" s="54">
         <v>466</v>
       </c>
@@ -40293,7 +40310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:38" s="58" customFormat="1">
+    <row r="468" spans="1:40" s="58" customFormat="1">
       <c r="A468" s="58">
         <v>467</v>
       </c>
@@ -40358,7 +40375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:38" s="58" customFormat="1">
+    <row r="469" spans="1:40" s="58" customFormat="1">
       <c r="A469" s="58">
         <v>468</v>
       </c>
@@ -40423,7 +40440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:38" s="58" customFormat="1">
+    <row r="470" spans="1:40" s="58" customFormat="1">
       <c r="A470" s="58">
         <v>469</v>
       </c>
@@ -40488,7 +40505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:38" s="58" customFormat="1">
+    <row r="471" spans="1:40" s="58" customFormat="1">
       <c r="A471" s="58">
         <v>470</v>
       </c>
@@ -40553,7 +40570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:38" s="58" customFormat="1">
+    <row r="472" spans="1:40" s="58" customFormat="1">
       <c r="A472" s="58">
         <v>471</v>
       </c>
@@ -40618,7 +40635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:38" s="58" customFormat="1">
+    <row r="473" spans="1:40" s="58" customFormat="1">
       <c r="A473" s="58">
         <v>472</v>
       </c>
@@ -40683,7 +40700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:38" s="68" customFormat="1">
+    <row r="474" spans="1:40" s="68" customFormat="1">
       <c r="A474" s="68">
         <v>473</v>
       </c>
@@ -40748,7 +40765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:38" s="68" customFormat="1">
+    <row r="475" spans="1:40" s="68" customFormat="1">
       <c r="A475" s="68">
         <v>474</v>
       </c>
@@ -40813,7 +40830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:38" s="70" customFormat="1">
+    <row r="476" spans="1:40" s="70" customFormat="1">
       <c r="A476" s="70">
         <v>475</v>
       </c>
@@ -40878,7 +40895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:38" s="70" customFormat="1">
+    <row r="477" spans="1:40" s="70" customFormat="1">
       <c r="A477" s="70">
         <v>476</v>
       </c>
@@ -40943,7 +40960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:38" s="70" customFormat="1">
+    <row r="478" spans="1:40" s="70" customFormat="1">
       <c r="A478" s="70">
         <v>477</v>
       </c>
@@ -41008,7 +41025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:38" s="70" customFormat="1">
+    <row r="479" spans="1:40" s="70" customFormat="1">
       <c r="A479" s="70">
         <v>478</v>
       </c>
@@ -41073,7 +41090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:38" s="81" customFormat="1" ht="14.25">
+    <row r="480" spans="1:40" s="81" customFormat="1" ht="14.25">
       <c r="A480" s="81">
         <v>479</v>
       </c>
@@ -41134,8 +41151,9 @@
       <c r="AL480" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="481" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="AN480" s="5"/>
+    </row>
+    <row r="481" spans="1:40" s="81" customFormat="1" ht="14.25">
       <c r="A481" s="81">
         <v>480</v>
       </c>
@@ -41196,8 +41214,9 @@
       <c r="AL481" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="482" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="AN481" s="5"/>
+    </row>
+    <row r="482" spans="1:40" s="81" customFormat="1" ht="14.25">
       <c r="A482" s="81">
         <v>481</v>
       </c>
@@ -41258,8 +41277,9 @@
       <c r="AL482" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="483" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="AN482" s="5"/>
+    </row>
+    <row r="483" spans="1:40" s="81" customFormat="1" ht="14.25">
       <c r="A483" s="81">
         <v>482</v>
       </c>
@@ -41320,8 +41340,9 @@
       <c r="AL483" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="484" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="AN483" s="5"/>
+    </row>
+    <row r="484" spans="1:40" s="81" customFormat="1" ht="14.25">
       <c r="A484" s="81">
         <v>483</v>
       </c>
@@ -41382,8 +41403,9 @@
       <c r="AL484" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="1:38" s="81" customFormat="1" ht="14.25">
+      <c r="AN484" s="5"/>
+    </row>
+    <row r="485" spans="1:40" s="81" customFormat="1" ht="14.25">
       <c r="A485" s="81">
         <v>484</v>
       </c>
@@ -41444,10 +41466,11 @@
       <c r="AL485" s="81">
         <v>1</v>
       </c>
-    </row>
-    <row r="486" spans="1:38" s="5" customFormat="1"/>
-    <row r="487" spans="1:38" s="5" customFormat="1"/>
-    <row r="488" spans="1:38" s="5" customFormat="1">
+      <c r="AN485" s="5"/>
+    </row>
+    <row r="486" spans="1:40" s="5" customFormat="1"/>
+    <row r="487" spans="1:40" s="5" customFormat="1"/>
+    <row r="488" spans="1:40" s="5" customFormat="1">
       <c r="Q488" s="10"/>
     </row>
   </sheetData>
